--- a/firmware/instruction table.xlsx
+++ b/firmware/instruction table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Apps\NSSTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\NSSTC\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D55B4-6603-4483-8019-B1C47E6015C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4354415F-04FA-45AA-9F6D-78217C3F4849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{7CB3EEEA-C47E-449D-B8C3-017CD3460CA1}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{7CB3EEEA-C47E-449D-B8C3-017CD3460CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>数据位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,11 +176,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AFh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全片擦除</t>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全片擦除（00h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全片擦除（FFh）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,21 +839,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +875,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,24 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50446264-0B02-4920-9C8F-CCA1E7926132}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1264,20 +1276,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>7</v>
       </c>
@@ -1302,46 +1314,46 @@
       <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="35"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -1371,7 +1383,7 @@
       <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1432,10 +1444,10 @@
       <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1464,42 +1476,42 @@
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>10</v>
+      <c r="D9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1507,31 +1519,31 @@
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="28">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
         <v>0</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1560,43 +1572,75 @@
       <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="47">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="47">
-        <v>1</v>
-      </c>
-      <c r="D12" s="48">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="47">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47">
-        <v>1</v>
-      </c>
-      <c r="H12" s="48">
-        <v>1</v>
-      </c>
-      <c r="I12" s="52" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="49" t="s">
-        <v>36</v>
+      <c r="J12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
